--- a/Statystyki_2018/Template/obbr_.xlsx
+++ b/Statystyki_2018/Template/obbr_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Nazwisko i imię
 Sędziego</t>
@@ -92,10 +92,64 @@
     <t>Kowalewska Ala</t>
   </si>
   <si>
+    <t>Zaległość z poprzedniego miesiąca</t>
+  </si>
+  <si>
+    <t>123.15</t>
+  </si>
+  <si>
+    <t>Wpływ</t>
+  </si>
+  <si>
+    <t>Załatwienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pozostało na następny miesiąc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-12 miesięcy</t>
+  </si>
+  <si>
+    <t>ponad 12 miesięcy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Informacja w zakresie długości postępowania międzyinstancyjnego            </t>
   </si>
   <si>
+    <t>Rep.</t>
+  </si>
+  <si>
+    <t>Ilość spraw przedstawionych SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z tego od daty zaskarżenia orzeczenia  </t>
+  </si>
+  <si>
+    <t>zażalenia</t>
+  </si>
+  <si>
+    <t>apelacje</t>
+  </si>
+  <si>
+    <t>do 2 m-cy</t>
+  </si>
+  <si>
+    <t>do 3 m-cy</t>
+  </si>
+  <si>
     <t>pow. 3 m-cy</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>RNsm</t>
@@ -171,34 +225,22 @@
 1 m-ca</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>inna funkcja</t>
-  </si>
-  <si>
-    <t>Wiceprezes</t>
-  </si>
-  <si>
-    <t>Kordyka 4</t>
-  </si>
-  <si>
-    <t>Krystian</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>sędzia liniowy</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>Kowalewska 6</t>
-  </si>
-  <si>
-    <t>Ula</t>
+    <t>Kordyka 4 Krystian</t>
+  </si>
+  <si>
+    <t>Kowalewska 6 Ula</t>
+  </si>
+  <si>
+    <t>Kowalewska 7 Ala</t>
+  </si>
+  <si>
+    <t>Nowak 1 Jan</t>
+  </si>
+  <si>
+    <t>Sokołowski 2 Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski 5 tomasz</t>
   </si>
 </sst>
 </file>
@@ -499,7 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -596,20 +638,11 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="10" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="10" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="10" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="10" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -941,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMA5"/>
+  <dimension ref="A1:AMA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD29"/>
@@ -3048,6 +3081,21 @@
       <c r="H3" s="45">
         <v>0</v>
       </c>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="45">
+        <v>0</v>
+      </c>
+      <c r="K3" s="45">
+        <v>0</v>
+      </c>
+      <c r="L3" s="45">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
@@ -3074,6 +3122,21 @@
       <c r="H4" s="45">
         <v>0</v>
       </c>
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0</v>
+      </c>
+      <c r="K4" s="45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
@@ -3098,6 +3161,253 @@
         <v>0</v>
       </c>
       <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="44">
+        <v>11</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44">
+        <v>0</v>
+      </c>
+      <c r="K7" s="44">
+        <v>0</v>
+      </c>
+      <c r="L7" s="44">
+        <v>0</v>
+      </c>
+      <c r="M7" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <v>33</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0</v>
+      </c>
+      <c r="J10" s="44">
+        <v>55</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0</v>
+      </c>
+      <c r="L10" s="44">
+        <v>0</v>
+      </c>
+      <c r="M10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>3</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
+        <v>0</v>
+      </c>
+      <c r="M11" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="44">
+        <v>0</v>
+      </c>
+      <c r="M13" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3106,6 +3416,14 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3131,7 +3449,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="31" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3150,113 +3468,155 @@
       <c r="G2" s="26"/>
     </row>
     <row r="3" ht="15.75">
-      <c r="A3" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="47">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47">
-        <v>0</v>
-      </c>
-      <c r="D3" s="47">
-        <v>0</v>
-      </c>
-      <c r="E3" s="47">
-        <v>0</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0</v>
-      </c>
+      <c r="A3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" ht="15.75">
-      <c r="A4" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="48">
-        <v>0</v>
-      </c>
-      <c r="C4" s="48">
-        <v>0</v>
-      </c>
-      <c r="D4" s="48">
-        <v>0</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0</v>
-      </c>
-      <c r="F4" s="48">
-        <v>0</v>
+      <c r="A4" s="32"/>
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75">
-      <c r="A5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="50">
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28"/>
+      <c r="A5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" ht="15.75">
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" ht="15.75">
       <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" ht="15.75">
       <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="25"/>
@@ -3293,7 +3653,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3309,23 +3669,23 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="35"/>
       <c r="B2" s="33" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -3342,21 +3702,6 @@
       <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="E3" s="45">
-        <v>0</v>
-      </c>
-      <c r="F3" s="45">
-        <v>0</v>
-      </c>
-      <c r="G3" s="45">
-        <v>0</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="45">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
@@ -3371,21 +3716,6 @@
       <c r="D4" s="45">
         <v>0</v>
       </c>
-      <c r="E4" s="45">
-        <v>0</v>
-      </c>
-      <c r="F4" s="45">
-        <v>0</v>
-      </c>
-      <c r="G4" s="45">
-        <v>0</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
@@ -3400,25 +3730,10 @@
       <c r="D5" s="45">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -3428,26 +3743,11 @@
       </c>
       <c r="D6" s="45">
         <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>4</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B7" s="45">
         <v>3</v>
@@ -3457,26 +3757,11 @@
       </c>
       <c r="D7" s="45">
         <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <v>3</v>
-      </c>
-      <c r="F7" s="45">
-        <v>2</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
-        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B8" s="45">
         <v>0</v>
@@ -3485,21 +3770,6 @@
         <v>0</v>
       </c>
       <c r="D8" s="45">
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
         <v>0</v>
       </c>
     </row>
@@ -3519,7 +3789,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3541,78 +3811,218 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="35" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="39" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="38"/>
       <c r="C2" s="28" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
     </row>
+    <row r="3">
+      <c r="A3" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4">
-      <c r="C4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>43</v>
+      <c r="A4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="45">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>48</v>
+      <c r="A5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="45">
+        <v>0</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="45">
+        <v>1</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="45">
+        <v>2</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="45">
+        <v>0</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Statystyki_2018/Template/obbr_.xlsx
+++ b/Statystyki_2018/Template/obbr_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Nazwisko i imię
 Sędziego</t>
@@ -86,12 +86,27 @@
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t>Kowalewska Ula</t>
-  </si>
-  <si>
     <t>Kowalewska Ala</t>
   </si>
   <si>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>Nowak Jan</t>
+  </si>
+  <si>
+    <t>6023.15</t>
+  </si>
+  <si>
+    <t>8023.15</t>
+  </si>
+  <si>
+    <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
+  </si>
+  <si>
     <t>Zaległość z poprzedniego miesiąca</t>
   </si>
   <si>
@@ -104,13 +119,13 @@
     <t>Załatwienia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pozostało na następny miesiąc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3-6 miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6-12 miesięcy</t>
+    <t>Pozostało na następny miesiąc</t>
+  </si>
+  <si>
+    <t>3-6 miesięcy</t>
+  </si>
+  <si>
+    <t>6-12 miesięcy</t>
   </si>
   <si>
     <t>ponad 12 miesięcy</t>
@@ -169,15 +184,6 @@
   </si>
   <si>
     <t>odroczonych</t>
-  </si>
-  <si>
-    <t>Nowak Jan</t>
-  </si>
-  <si>
-    <t>Sokołowski Michał</t>
-  </si>
-  <si>
-    <t>trzaskowski tomasz</t>
   </si>
   <si>
     <t xml:space="preserve">Nazwisko i imię
@@ -228,10 +234,10 @@
     <t>Kordyka 4 Krystian</t>
   </si>
   <si>
-    <t>Kowalewska 6 Ula</t>
-  </si>
-  <si>
     <t>Kowalewska 7 Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska-KowalewskaKowalewska 6 Ula</t>
   </si>
   <si>
     <t>Nowak 1 Jan</t>
@@ -429,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -521,6 +527,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -541,7 +571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -638,6 +668,8 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -974,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMA13"/>
+  <dimension ref="A1:AMA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD29"/>
@@ -3180,113 +3212,153 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="44">
-        <v>11</v>
-      </c>
-      <c r="G6" s="44" t="s">
+      <c r="B6" s="45">
+        <v>2038</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44">
-        <v>0</v>
-      </c>
-      <c r="L6" s="44">
-        <v>0</v>
-      </c>
-      <c r="M6" s="44">
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="45">
+        <v>2056</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44">
-        <v>0</v>
-      </c>
-      <c r="K7" s="44">
-        <v>0</v>
-      </c>
-      <c r="L7" s="44">
-        <v>0</v>
-      </c>
-      <c r="M7" s="44">
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="44">
-        <v>33</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="J8" s="44">
-        <v>0</v>
-      </c>
-      <c r="K8" s="44">
-        <v>0</v>
-      </c>
-      <c r="L8" s="44">
-        <v>0</v>
-      </c>
-      <c r="M8" s="44">
+      <c r="A8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="45">
+        <v>0</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="44">
         <v>0</v>
       </c>
       <c r="I9" s="44">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J9" s="44">
         <v>0</v>
       </c>
       <c r="K9" s="44">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L9" s="44">
         <v>0</v>
@@ -3296,9 +3368,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="44">
         <v>0</v>
       </c>
@@ -3309,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="44">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J10" s="44">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K10" s="44">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L10" s="44">
         <v>0</v>
@@ -3325,17 +3401,21 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0</v>
+      <c r="A11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="44">
         <v>0</v>
@@ -3354,9 +3434,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="44">
         <v>0</v>
       </c>
@@ -3383,9 +3467,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="44">
         <v>0</v>
       </c>
@@ -3399,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="44">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K13" s="44">
         <v>0</v>
@@ -3408,6 +3496,72 @@
         <v>0</v>
       </c>
       <c r="M13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44">
+        <v>3</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0</v>
+      </c>
+      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>66</v>
+      </c>
+      <c r="L14" s="44">
+        <v>0</v>
+      </c>
+      <c r="M14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>67</v>
+      </c>
+      <c r="L15" s="44">
+        <v>0</v>
+      </c>
+      <c r="M15" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3416,14 +3570,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3449,7 +3602,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3469,15 +3622,15 @@
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -3488,134 +3641,134 @@
         <v>14</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.75">
       <c r="A5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="15.75">
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>37</v>
+      <c r="B6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="15.75">
       <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>37</v>
+      <c r="B8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="15.75">
       <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>37</v>
+      <c r="B9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="15.75">
@@ -3669,23 +3822,23 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="37" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="35"/>
       <c r="B2" s="33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -3733,7 +3886,7 @@
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -3747,7 +3900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B7" s="45">
         <v>3</v>
@@ -3761,7 +3914,7 @@
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="45">
         <v>0</v>
@@ -3811,40 +3964,40 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="38"/>
       <c r="C2" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
@@ -3853,7 +4006,7 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="45">
         <v>0</v>
@@ -3882,7 +4035,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="45">
         <v>0</v>
@@ -3911,7 +4064,7 @@
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="45">
         <v>0</v>
@@ -3940,19 +4093,19 @@
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="45">
         <v>1</v>
       </c>
       <c r="C6" s="45">
-        <v>0</v>
+        <v>13.213213</v>
       </c>
       <c r="D6" s="45">
-        <v>0</v>
+        <v>13.213213</v>
       </c>
       <c r="E6" s="45">
-        <v>0</v>
+        <v>13.213213</v>
       </c>
       <c r="F6" s="45">
         <v>0</v>
@@ -3969,19 +4122,19 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="45">
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>0</v>
+        <v>18.918918</v>
       </c>
       <c r="D7" s="45">
-        <v>0</v>
+        <v>18.918918</v>
       </c>
       <c r="E7" s="45">
-        <v>0</v>
+        <v>18.918918</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
@@ -3998,7 +4151,7 @@
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="45">
         <v>0</v>
